--- a/00_Temp/Sentiment_Framework/Category and Sentiment Framework.xlsx
+++ b/00_Temp/Sentiment_Framework/Category and Sentiment Framework.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1351d315c21e3c97/Documents/Rice/Summer Semester/Capstone/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1351d315c21e3c97/Documents/Rice/Summer Semester/Capstone/Project/CVX_Rice_project/00_Temp/Sentiment_Framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="11_F25DC773A252ABDACC10487521D870CC5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FABD2AE-1FA2-4115-B984-0C22F5750105}"/>
+  <xr:revisionPtr revIDLastSave="411" documentId="11_F25DC773A252ABDACC10487521D870CC5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136BEDAE-B709-49FF-83EA-5FCB3084CF0C}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories &amp; Sentiments" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Sentiments</t>
   </si>
@@ -186,6 +187,27 @@
   </si>
   <si>
     <t>Minor Acquisition or Merger</t>
+  </si>
+  <si>
+    <t>Sentiment Options</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Reserves / Exploration / Acquisitions / Mergers / Divestments</t>
+  </si>
+  <si>
+    <t>Environment / Regulatory / Geopolitics</t>
+  </si>
+  <si>
+    <t>Alternative Energy / Lower Carbon</t>
+  </si>
+  <si>
+    <t>Oil Price / Natural Gas Price / Gasoline Price</t>
   </si>
 </sst>
 </file>
@@ -209,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +256,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -446,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -476,6 +510,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +527,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1015,4 +1047,80 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E318AB3C-9FD8-4CC4-B451-A538D4CE9833}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="1.64453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.05859375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.8203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.05859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.8203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.9375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B6" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B7" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B8" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>